--- a/biology/Médecine/Darolutamide/Darolutamide.xlsx
+++ b/biology/Médecine/Darolutamide/Darolutamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le darolutamide est un  inhibiteur des récepteurs aux androgènes utilisé dans le traitement du cancer de la prostate.
 </t>
@@ -511,9 +523,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est métabolisé par le CYP3A4[1]. Il passe la barrière hémato-encéphalique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est métabolisé par le CYP3A4. Il passe la barrière hémato-encéphalique.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son taux sanguin est augmenté avec l'itraconazole, diminué avec la rifampicine[1].
-Son administration augmente le taux sanguin de la rosuvastatine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son taux sanguin est augmenté avec l'itraconazole, diminué avec la rifampicine.
+Son administration augmente le taux sanguin de la rosuvastatine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cancer de la prostate résistant à la castration mais non métastatique, il allonge la rémission de plusieurs années[3] ainsi que la survie[4]. C'est le cas également dans les formes métastatiques, lorsqu'il est donné en association avec le docetaxel[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cancer de la prostate résistant à la castration mais non métastatique, il allonge la rémission de plusieurs années ainsi que la survie. C'est le cas également dans les formes métastatiques, lorsqu'il est donné en association avec le docetaxel.
 </t>
         </is>
       </c>
